--- a/Lab4 (Perturb and Observe MPPT )/Results.xlsx
+++ b/Lab4 (Perturb and Observe MPPT )/Results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Education\University\2019_Sem2(SPR)\48550 (Renewable Energy Systems)\Labs\Renewables\Lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12051342\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D703D0-A8F5-4BB3-83AA-D5BAD8A89CE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8E7363E-CAD1-4279-888C-12417EFCFF0C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,6 +131,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>I-V Curves of PV Emaulator</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -562,6 +617,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -593,6 +649,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -655,6 +767,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -704,8 +872,41 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -713,7 +914,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -762,6 +962,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>I-V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Curves of PV Emulator</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -861,40 +1122,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.4960000000000002E-5</c:v>
+                  <c:v>2.4960000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.794E-4</c:v>
+                  <c:v>0.1794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4099999999999991E-4</c:v>
+                  <c:v>0.74099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6145999999999999E-3</c:v>
+                  <c:v>1.6146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3929999999999997E-3</c:v>
+                  <c:v>3.3929999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0965200000000002E-3</c:v>
+                  <c:v>5.0965199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1288000000000011E-3</c:v>
+                  <c:v>7.1288000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3592500000000003E-3</c:v>
+                  <c:v>6.3592500000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2554400000000001E-3</c:v>
+                  <c:v>4.2554399999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8991700000000002E-3</c:v>
+                  <c:v>1.89917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.71134E-3</c:v>
+                  <c:v>1.7113400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5443799999999999E-3</c:v>
+                  <c:v>1.5443800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1002,40 +1263,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.5400000000000002E-5</c:v>
+                  <c:v>1.54E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1088E-4</c:v>
+                  <c:v>0.11087999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5276000000000002E-4</c:v>
+                  <c:v>0.45276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9176000000000017E-4</c:v>
+                  <c:v>0.99176000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0753199999999999E-3</c:v>
+                  <c:v>2.0753200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0600000000000002E-3</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.712E-3</c:v>
+                  <c:v>4.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3406000000000009E-3</c:v>
+                  <c:v>5.3406000000000011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.23661E-3</c:v>
+                  <c:v>4.2366100000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8782999999999998E-3</c:v>
+                  <c:v>1.8783000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.71134E-3</c:v>
+                  <c:v>1.7113400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5451199999999999E-3</c:v>
+                  <c:v>1.5451199999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1143,40 +1404,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.4723E-5</c:v>
+                  <c:v>2.4723000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7837999999999998E-5</c:v>
+                  <c:v>4.7837999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9296E-4</c:v>
+                  <c:v>0.19295999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2210000000000001E-4</c:v>
+                  <c:v>0.42210000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8000000000000014E-4</c:v>
+                  <c:v>0.88000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3000000000000002E-3</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9719999999999998E-3</c:v>
+                  <c:v>1.972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6928E-3</c:v>
+                  <c:v>2.6928000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3852000000000005E-3</c:v>
+                  <c:v>3.3852000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8809999999999996E-3</c:v>
+                  <c:v>1.8809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7137999999999999E-3</c:v>
+                  <c:v>1.7138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5465999999999998E-3</c:v>
+                  <c:v>1.5465999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1223,6 +1484,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1285,6 +1602,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Power</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (W)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1334,8 +1712,50 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80968000874890644"/>
+          <c:y val="0.33209390492855062"/>
+          <c:w val="0.17365332458442698"/>
+          <c:h val="0.31770997375328086"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1343,7 +1763,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2531,15 +2950,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2863,11 +3282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B3A3C1-9C39-469D-8BAC-B6F3BE00314F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,8 +3324,8 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="D3">
-        <f>C3*(B3/1000)</f>
-        <v>2.4960000000000002E-5</v>
+        <f>C3*B3</f>
+        <v>2.4960000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2920,8 +3339,8 @@
         <v>0.46</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D15" si="0">C4*(B4/1000)</f>
-        <v>1.794E-4</v>
+        <f t="shared" ref="D4:D15" si="0">C4*B4</f>
+        <v>0.1794</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,7 +3355,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>7.4099999999999991E-4</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,7 +3370,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.6145999999999999E-3</v>
+        <v>1.6146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,7 +3385,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.3929999999999997E-3</v>
+        <v>3.3929999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,7 +3400,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>5.0965200000000002E-3</v>
+        <v>5.0965199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,7 +3415,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>7.1288000000000011E-3</v>
+        <v>7.1288000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,7 +3430,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>6.3592500000000003E-3</v>
+        <v>6.3592500000000003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,7 +3445,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>4.2554400000000001E-3</v>
+        <v>4.2554399999999992</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,7 +3460,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1.8991700000000002E-3</v>
+        <v>1.89917</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +3475,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.71134E-3</v>
+        <v>1.7113400000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3071,7 +3490,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.5443799999999999E-3</v>
+        <v>1.5443800000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3119,8 +3538,8 @@
         <v>0.05</v>
       </c>
       <c r="D18">
-        <f>C18*(B18/1000)</f>
-        <v>1.5400000000000002E-5</v>
+        <f>C18*B18</f>
+        <v>1.54E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,8 +3553,8 @@
         <v>0.36</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D30" si="1">C19*(B19/1000)</f>
-        <v>1.1088E-4</v>
+        <f t="shared" ref="D19:D30" si="1">C19*B19</f>
+        <v>0.11087999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3150,7 +3569,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>4.5276000000000002E-4</v>
+        <v>0.45276</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3165,7 +3584,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>9.9176000000000017E-4</v>
+        <v>0.99176000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,7 +3599,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>2.0753199999999999E-3</v>
+        <v>2.0753200000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3195,7 +3614,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3.0600000000000002E-3</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,7 +3629,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>4.712E-3</v>
+        <v>4.7119999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3225,7 +3644,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>5.3406000000000009E-3</v>
+        <v>5.3406000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,7 +3659,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>4.23661E-3</v>
+        <v>4.2366100000000007</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,7 +3674,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1.8782999999999998E-3</v>
+        <v>1.8783000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,7 +3689,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>1.71134E-3</v>
+        <v>1.7113400000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,7 +3704,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>1.5451199999999999E-3</v>
+        <v>1.5451199999999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,8 +3752,8 @@
         <v>0.123</v>
       </c>
       <c r="D34">
-        <f>C34*(B34/1000)</f>
-        <v>2.4723E-5</v>
+        <f>C34*B34</f>
+        <v>2.4723000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,8 +3767,8 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="D35">
-        <f>C35*(B35/1000)</f>
-        <v>4.7837999999999998E-5</v>
+        <f t="shared" ref="D35:D46" si="2">C35*B35</f>
+        <v>4.7837999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,8 +3782,8 @@
         <v>0.96</v>
       </c>
       <c r="D36">
-        <f>C36*(B36/1000)</f>
-        <v>1.9296E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.19295999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3378,8 +3797,8 @@
         <v>2.1</v>
       </c>
       <c r="D37">
-        <f>C37*(B37/1000)</f>
-        <v>4.2210000000000001E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.42210000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3393,8 +3812,8 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D38">
-        <f>C38*(B38/1000)</f>
-        <v>8.8000000000000014E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.88000000000000012</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3408,8 +3827,8 @@
         <v>6.5</v>
       </c>
       <c r="D39">
-        <f>C39*(B39/1000)</f>
-        <v>1.3000000000000002E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,8 +3842,8 @@
         <v>9.86</v>
       </c>
       <c r="D40">
-        <f>C40*(B40/1000)</f>
-        <v>1.9719999999999998E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.972</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3438,8 +3857,8 @@
         <v>13.6</v>
       </c>
       <c r="D41">
-        <f>C41*(B41/1000)</f>
-        <v>2.6928E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.6928000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3453,8 +3872,8 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D42">
-        <f>C42*(B42/1000)</f>
-        <v>3.3852000000000005E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.3852000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,8 +3887,8 @@
         <v>20.9</v>
       </c>
       <c r="D43">
-        <f>C43*(B43/1000)</f>
-        <v>1.8809999999999996E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.8809999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,8 +3902,8 @@
         <v>20.9</v>
       </c>
       <c r="D44">
-        <f>C44*(B44/1000)</f>
-        <v>1.7137999999999999E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.7138</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,8 +3917,8 @@
         <v>20.9</v>
       </c>
       <c r="D45">
-        <f>C45*(B45/1000)</f>
-        <v>1.5465999999999998E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.5465999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,7 +3932,7 @@
         <v>20.9</v>
       </c>
       <c r="D46">
-        <f>C46*(B46/1000)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
